--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Robinson_Woolfield/Thomas_Robinson_Woolfield.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Robinson_Woolfield/Thomas_Robinson_Woolfield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sir Thomas Robinson Woolfield, né en 18 février 1800 à Birmingham et mort le 28 avril 1888 à Cannes[1], est une personnalité de la ville de Cannes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sir Thomas Robinson Woolfield, né en 18 février 1800 à Birmingham et mort le 28 avril 1888 à Cannes, est une personnalité de la ville de Cannes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sir Thomas Robinson Woolfield est un promoteur immobilier britannique qui a construit le Palais du duc Vallombrosa et la Villa Victoria à Cannes[2]. Il est aussi un acclimateur grâce à qui le premier Eucalyptus a été importé en Europe depuis le jardin botanique de Sydney eu Australie[3]. Le jardin botanique de la Villa Victoria a été composé par le jardinier britannique John Taylor (1834-1922). La flore de la Villa Victoria était admirée et citée en exemple par les botanistes anglais. En 1855 Sir Thomas Robinson Woolfield fait construire Christ Church sur la partie nord-est du jardin de la propriété. En 1860 il lotit une grande partie de son domaine, ne gardant que le jardin qui s'étend à proximité de la maison jusqu'à la mer. Le prince Léopold, fils de la reine Victoria et futur duc d'Albany, y introduit et met à la mode le croquet dont le terrain est aménagé en 1874 en court de tennis, le premier de Cannes. Ce qui restait du jardin est loti depuis 1951.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sir Thomas Robinson Woolfield est un promoteur immobilier britannique qui a construit le Palais du duc Vallombrosa et la Villa Victoria à Cannes. Il est aussi un acclimateur grâce à qui le premier Eucalyptus a été importé en Europe depuis le jardin botanique de Sydney eu Australie. Le jardin botanique de la Villa Victoria a été composé par le jardinier britannique John Taylor (1834-1922). La flore de la Villa Victoria était admirée et citée en exemple par les botanistes anglais. En 1855 Sir Thomas Robinson Woolfield fait construire Christ Church sur la partie nord-est du jardin de la propriété. En 1860 il lotit une grande partie de son domaine, ne gardant que le jardin qui s'étend à proximité de la maison jusqu'à la mer. Le prince Léopold, fils de la reine Victoria et futur duc d'Albany, y introduit et met à la mode le croquet dont le terrain est aménagé en 1874 en court de tennis, le premier de Cannes. Ce qui restait du jardin est loti depuis 1951.
 Il est inhumé à Cannes, au Cimetière du Grand Jas.
 </t>
         </is>
